--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_03_beg.xlsx
@@ -1496,7 +1496,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Muelsyse"]The idea is the prison gets used as a lockbox to shove every “troublesome” person. And it's the people none of the cities want to bother with.
+    <t xml:space="preserve">[name="Muelsyse"]The idea is the prison gets used as a lockbox to shove every 'troublesome' person. And it's the people none of the cities want to bother with.
 </t>
   </si>
   <si>
@@ -1660,7 +1660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Muelsyse"]Don't you go “wow, that's a super-sized business opportunity?”
+    <t xml:space="preserve">[name="Muelsyse"]Don't you go 'wow, that's a super-sized business opportunity?'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_03_beg.xlsx
@@ -1728,7 +1728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Silence"]...I don’t understand.
+    <t xml:space="preserve">[name="Silence"]...I don't understand.
 </t>
   </si>
   <si>
